--- a/raw/PotionFillableInkCosts.xlsx
+++ b/raw/PotionFillableInkCosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\FabricModding\Spectrum\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B07B7F-B30E-4166-B957-1C214BFE3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA5798-A865-40FD-9351-2524D360A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23355" yWindow="0" windowWidth="28245" windowHeight="21000" xr2:uid="{A58E00EA-B952-46D3-AE2F-87E684079017}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
